--- a/medicine/Mort/Obituaire/Obituaire.xlsx
+++ b/medicine/Mort/Obituaire/Obituaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un obituaire (du latin obitus : mort, décès) est un registre où sont inscrits le nom des morts et la date anniversaire de leur sépulture afin de célébrer des offices religieux pour le repos de leur âme[1]. Employé comme adjectif, obituaire signifie que le nom qu'il qualifie a un rapport avec la mort, par exemple : registre obituaire[2], inscription obituaire[3], prêtre obituaire.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un obituaire (du latin obitus : mort, décès) est un registre où sont inscrits le nom des morts et la date anniversaire de leur sépulture afin de célébrer des offices religieux pour le repos de leur âme. Employé comme adjectif, obituaire signifie que le nom qu'il qualifie a un rapport avec la mort, par exemple : registre obituaire, inscription obituaire, prêtre obituaire.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'obit est le nom des messes anniversaires dites pour les morts[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'obit est le nom des messes anniversaires dites pour les morts.
 Par extension, l'obit est le nom de la chapelle fondée pour la célébration perpétuelle d'une messe anniversaire. On appelle aussi obit les honoraires payés au prêtre pour la célébration d'un service funéraire.
-Le meuble renfermant le registre pouvait lui aussi se nommer obituaire par extension[6].
+Le meuble renfermant le registre pouvait lui aussi se nommer obituaire par extension.
 En droit canon, prétendant obituaire désignait un ecclésiastique qui réclamait en justice un bénéfice laissé vacant par décès du titulaire.
 </t>
         </is>
